--- a/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55D4237-F6C1-401C-A8FC-91D701727A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41D1234-EF85-4B4E-BB62-2107B15F3627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45A3F394-8E9A-4296-8F4A-D8CC75FF750E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70830F5B-D6FA-4708-B451-E3B95402C993}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>48,36%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,190 +104,196 @@
     <t>51,64%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>76,95%</t>
   </si>
   <si>
-    <t>68,3%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>70,19%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>23,05%</t>
   </si>
   <si>
-    <t>31,7%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,63%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>30,37%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,103 +302,109 @@
     <t>79,44%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>79,4%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>70,84%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,34%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>29,16%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -807,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AACCDB8-EE77-40D0-8645-6616035DC8EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D68BCE-0B2D-4439-B996-E3B3717F07E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1116,13 +1128,13 @@
         <v>81809</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1137,13 +1149,13 @@
         <v>14433</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -1152,13 +1164,13 @@
         <v>10903</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -1167,13 +1179,13 @@
         <v>25335</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1229,7 +1241,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1241,13 +1253,13 @@
         <v>101803</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -1256,13 +1268,13 @@
         <v>66363</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>249</v>
@@ -1271,13 +1283,13 @@
         <v>168167</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,10 +1307,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -1307,13 +1319,13 @@
         <v>23057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>77</v>
@@ -1322,13 +1334,13 @@
         <v>53549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,7 +1396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1396,13 +1408,13 @@
         <v>57996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -1411,13 +1423,13 @@
         <v>57885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -1426,13 +1438,13 @@
         <v>115881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1459,13 @@
         <v>25293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -1462,13 +1474,13 @@
         <v>21998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -1477,13 +1489,13 @@
         <v>47291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1563,13 @@
         <v>68538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -1566,13 +1578,13 @@
         <v>71999</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -1581,13 +1593,13 @@
         <v>140536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1614,13 @@
         <v>17740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -1617,13 +1629,13 @@
         <v>18682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -1632,13 +1644,13 @@
         <v>36423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1718,13 @@
         <v>278687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>351</v>
@@ -1721,13 +1733,13 @@
         <v>238977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>733</v>
@@ -1736,13 +1748,13 @@
         <v>517663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1769,13 @@
         <v>92390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>117</v>
@@ -1772,13 +1784,13 @@
         <v>77037</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -1787,13 +1799,13 @@
         <v>169427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41D1234-EF85-4B4E-BB62-2107B15F3627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A6E77A-49CF-411F-8636-0F2B2EF1B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70830F5B-D6FA-4708-B451-E3B95402C993}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D258F556-3C61-45D7-8F41-50DC985A1FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir el ruido (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D68BCE-0B2D-4439-B996-E3B3717F07E4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA1B825-056E-401D-846C-3D01E71F82C3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>4151</v>
+        <v>41903</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7">
-        <v>7119</v>
+        <v>51361</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="N4" s="7">
-        <v>11270</v>
+        <v>93263</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>4433</v>
+        <v>12956</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>2397</v>
+        <v>20159</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>6829</v>
+        <v>33116</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>8584</v>
+        <v>54859</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>9516</v>
+        <v>71520</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>18099</v>
+        <v>126379</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>46198</v>
+        <v>65219</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7">
-        <v>35610</v>
+        <v>103469</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,19 +1071,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="N7" s="7">
-        <v>81809</v>
+        <v>168688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>14433</v>
+        <v>22567</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>10903</v>
+        <v>32138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N8" s="7">
-        <v>25335</v>
+        <v>54705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7">
-        <v>60631</v>
+        <v>87786</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="I9" s="7">
-        <v>46513</v>
+        <v>135607</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="N9" s="7">
-        <v>107144</v>
+        <v>223393</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>101803</v>
+        <v>78201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>66363</v>
+        <v>62581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>168167</v>
+        <v>140782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>30492</v>
+        <v>21717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>23057</v>
+        <v>26791</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>53549</v>
+        <v>48508</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>132295</v>
+        <v>99918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="I12" s="7">
-        <v>89420</v>
+        <v>89372</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>221716</v>
+        <v>189290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>100</v>
+      </c>
+      <c r="D13" s="7">
+        <v>71354</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>91</v>
+      </c>
+      <c r="I13" s="7">
+        <v>70883</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7">
+        <v>191</v>
+      </c>
+      <c r="N13" s="7">
+        <v>142237</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="7">
-        <v>57996</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>57885</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="7">
-        <v>149</v>
-      </c>
-      <c r="N13" s="7">
-        <v>115881</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>25293</v>
+        <v>17626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>21998</v>
+        <v>18767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>47291</v>
+        <v>36393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>83289</v>
+        <v>88980</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>79883</v>
+        <v>89650</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N15" s="7">
-        <v>163172</v>
+        <v>178630</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>351</v>
+      </c>
+      <c r="D16" s="7">
+        <v>256677</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>382</v>
+      </c>
+      <c r="I16" s="7">
+        <v>288294</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="7">
-        <v>68538</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>71999</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>191</v>
+        <v>733</v>
       </c>
       <c r="N16" s="7">
-        <v>140536</v>
+        <v>544970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="D17" s="7">
-        <v>17740</v>
+        <v>74866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="I17" s="7">
-        <v>18682</v>
+        <v>97855</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="N17" s="7">
-        <v>36423</v>
+        <v>172721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>115</v>
+        <v>468</v>
       </c>
       <c r="D18" s="7">
-        <v>86278</v>
+        <v>331543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="I18" s="7">
-        <v>90681</v>
+        <v>386149</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>243</v>
+        <v>979</v>
       </c>
       <c r="N18" s="7">
-        <v>176959</v>
+        <v>717691</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>382</v>
-      </c>
-      <c r="D19" s="7">
-        <v>278687</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>351</v>
-      </c>
-      <c r="I19" s="7">
-        <v>238977</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>733</v>
-      </c>
-      <c r="N19" s="7">
-        <v>517663</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>129</v>
-      </c>
-      <c r="D20" s="7">
-        <v>92390</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>117</v>
-      </c>
-      <c r="I20" s="7">
-        <v>77037</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>246</v>
-      </c>
-      <c r="N20" s="7">
-        <v>169427</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>511</v>
-      </c>
-      <c r="D21" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>468</v>
-      </c>
-      <c r="I21" s="7">
-        <v>316014</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>979</v>
-      </c>
-      <c r="N21" s="7">
-        <v>687090</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
